--- a/resources/vendors.xlsx
+++ b/resources/vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techidol solutions\CRM\crm_dashboard\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B44EE46-27FF-4B57-A7A5-329A50C5CACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4969A-B64B-4EF9-9B0E-C37B8B957205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>31</v>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="O2">
-        <v>693.54</v>
+        <v>600</v>
       </c>
       <c r="P2">
         <v>21500</v>
@@ -781,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>31</v>
@@ -790,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="O4">
-        <v>693.54</v>
+        <v>643.23</v>
       </c>
       <c r="P4">
         <v>21500</v>
@@ -831,7 +831,7 @@
         <v>31</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <v>31</v>
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="O5">
-        <v>693.54</v>
+        <v>546.54</v>
       </c>
       <c r="P5">
         <v>21500</v>
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="O6">
-        <v>693.54</v>
+        <v>246.45</v>
       </c>
       <c r="P6">
         <v>21500</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="O7">
-        <v>693.54</v>
+        <v>600</v>
       </c>
       <c r="P7">
         <v>21500</v>
@@ -990,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="O8">
-        <v>693.54</v>
+        <v>450</v>
       </c>
       <c r="P8">
         <v>21500</v>
@@ -1031,7 +1031,7 @@
         <v>31</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>31</v>
@@ -1040,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="O9">
-        <v>693.54</v>
+        <v>746.45</v>
       </c>
       <c r="P9">
         <v>21500</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <v>31</v>
@@ -1131,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>31</v>
@@ -1140,7 +1140,7 @@
         <v>20</v>
       </c>
       <c r="O11">
-        <v>693.54</v>
+        <v>494.56</v>
       </c>
       <c r="P11">
         <v>21500</v>
@@ -1181,7 +1181,7 @@
         <v>31</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>31</v>
@@ -1190,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="O12">
-        <v>693.54</v>
+        <v>556.66999999999996</v>
       </c>
       <c r="P12">
         <v>21500</v>
@@ -1231,7 +1231,7 @@
         <v>31</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>31</v>
@@ -1431,7 +1431,7 @@
         <v>31</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>31</v>
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="O17">
-        <v>693.54</v>
+        <v>500</v>
       </c>
       <c r="P17">
         <v>21500</v>
@@ -1481,7 +1481,7 @@
         <v>31</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18">
         <v>31</v>
@@ -1490,7 +1490,7 @@
         <v>20</v>
       </c>
       <c r="O18">
-        <v>693.54</v>
+        <v>600</v>
       </c>
       <c r="P18">
         <v>21500</v>
@@ -1540,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="O19">
-        <v>693.54</v>
+        <v>756.65</v>
       </c>
       <c r="P19">
         <v>21500</v>
@@ -1590,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>693.54</v>
+        <v>459.69</v>
       </c>
       <c r="P20">
         <v>21500</v>
@@ -1631,7 +1631,7 @@
         <v>31</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <v>31</v>
@@ -1690,10 +1690,10 @@
         <v>20</v>
       </c>
       <c r="O22">
-        <v>600</v>
+        <v>693.54</v>
       </c>
       <c r="P22">
-        <v>20900</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -1781,7 +1781,7 @@
         <v>31</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>31</v>
@@ -1790,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="O24">
-        <v>693.54</v>
+        <v>600</v>
       </c>
       <c r="P24">
         <v>21500</v>
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="O25">
-        <v>693.54</v>
+        <v>456.56</v>
       </c>
       <c r="P25">
         <v>21500</v>
@@ -1881,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>31</v>
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="O26">
-        <v>693.54</v>
+        <v>345.56</v>
       </c>
       <c r="P26">
         <v>21500</v>
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>31</v>
@@ -2040,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="O29">
-        <v>693.54</v>
+        <v>456.59</v>
       </c>
       <c r="P29">
         <v>21500</v>
@@ -2131,7 +2131,7 @@
         <v>31</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>31</v>
@@ -2240,7 +2240,7 @@
         <v>20</v>
       </c>
       <c r="O33">
-        <v>693.54</v>
+        <v>334.56</v>
       </c>
       <c r="P33">
         <v>21500</v>
@@ -2331,7 +2331,7 @@
         <v>31</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>31</v>
@@ -2481,7 +2481,7 @@
         <v>31</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>31</v>
@@ -2581,7 +2581,7 @@
         <v>31</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <v>31</v>
